--- a/data/trans_orig/ProblemasDormirP33b-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB81F2C-DF96-46FF-8DA1-744707A861CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5334DEB8-F27B-4089-9440-4EE5841851A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{160C6A25-B9CE-44CC-BD48-1A36C6D74027}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E23411D-24C2-43CA-9581-B4883ECF109C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>25,85%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>32,92%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>74,15%</t>
   </si>
   <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>67,08%</t>
   </si>
   <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>10,55%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,106 +194,106 @@
     <t>11,72%</t>
   </si>
   <si>
-    <t>9,04%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>87,96%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>81,98%</t>
+    <t>82,06%</t>
   </si>
   <si>
     <t>84,07%</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F64B610-AD8D-4748-A9AE-A398F70E9963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165AB318-CA57-4315-8BA1-08BF0EC1E3F8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>2411</v>
       </c>
       <c r="I8" s="7">
-        <v>1895820</v>
+        <v>1895821</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1348,7 +1348,7 @@
         <v>2870</v>
       </c>
       <c r="D14" s="7">
-        <v>2929697</v>
+        <v>2929696</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1378,7 +1378,7 @@
         <v>7049</v>
       </c>
       <c r="N14" s="7">
-        <v>5953268</v>
+        <v>5953267</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/ProblemasDormirP33b-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5334DEB8-F27B-4089-9440-4EE5841851A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C0B533C-662D-4486-8698-7DE0F69D6672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E23411D-24C2-43CA-9581-B4883ECF109C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2CCBEEE-DDEE-4703-975B-B5FA29839549}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165AB318-CA57-4315-8BA1-08BF0EC1E3F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02A3279-0218-47B4-A19E-80DCBBE36C4D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/ProblemasDormirP33b-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C0B533C-662D-4486-8698-7DE0F69D6672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4314E731-59F0-4E1A-B4E0-4B6434F51C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2CCBEEE-DDEE-4703-975B-B5FA29839549}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0D10BD23-FF7E-4692-AE9C-7ACE66BA19B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,34 +68,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>32,92%</t>
   </si>
   <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>74,15%</t>
   </si>
   <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
   </si>
   <si>
     <t>67,08%</t>
   </si>
   <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>10,55%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,19 +194,19 @@
     <t>11,72%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
   </si>
   <si>
     <t>13,52%</t>
@@ -215,31 +215,31 @@
     <t>11,75%</t>
   </si>
   <si>
-    <t>15,33%</t>
+    <t>15,34%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>86,48%</t>
   </si>
   <si>
-    <t>84,67%</t>
+    <t>84,66%</t>
   </si>
   <si>
     <t>88,25%</t>
@@ -248,19 +248,19 @@
     <t>13,24%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
   </si>
   <si>
     <t>17,04%</t>
@@ -269,31 +269,31 @@
     <t>15,93%</t>
   </si>
   <si>
-    <t>17,94%</t>
+    <t>18,02%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>82,06%</t>
+    <t>81,98%</t>
   </si>
   <si>
     <t>84,07%</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02A3279-0218-47B4-A19E-80DCBBE36C4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E318377E-FF81-4C54-9990-7D16C48B3E98}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>2411</v>
       </c>
       <c r="I8" s="7">
-        <v>1895821</v>
+        <v>1895820</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1348,7 +1348,7 @@
         <v>2870</v>
       </c>
       <c r="D14" s="7">
-        <v>2929696</v>
+        <v>2929697</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1378,7 +1378,7 @@
         <v>7049</v>
       </c>
       <c r="N14" s="7">
-        <v>5953267</v>
+        <v>5953268</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/ProblemasDormirP33b-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4314E731-59F0-4E1A-B4E0-4B6434F51C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D80EC2CF-E708-49B6-8E87-4F901B1BDE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0D10BD23-FF7E-4692-AE9C-7ACE66BA19B5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DEB6A45B-213C-40D8-880A-8867010BF6B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E318377E-FF81-4C54-9990-7D16C48B3E98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3E7702-1C61-4625-A9DB-CFDA873F6B8B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>176</v>
       </c>
       <c r="D4" s="7">
-        <v>140022</v>
+        <v>128248</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>514</v>
       </c>
       <c r="I4" s="7">
-        <v>313436</v>
+        <v>275570</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>690</v>
       </c>
       <c r="N4" s="7">
-        <v>453457</v>
+        <v>403818</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>515</v>
       </c>
       <c r="D5" s="7">
-        <v>401612</v>
+        <v>386690</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>913</v>
       </c>
       <c r="I5" s="7">
-        <v>522517</v>
+        <v>479938</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>1428</v>
       </c>
       <c r="N5" s="7">
-        <v>924129</v>
+        <v>866628</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>243</v>
       </c>
       <c r="D7" s="7">
-        <v>228102</v>
+        <v>212174</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>510</v>
       </c>
       <c r="I7" s="7">
-        <v>353700</v>
+        <v>319978</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>753</v>
       </c>
       <c r="N7" s="7">
-        <v>581802</v>
+        <v>532152</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>1749</v>
       </c>
       <c r="D8" s="7">
-        <v>1933920</v>
+        <v>2078153</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>2411</v>
       </c>
       <c r="I8" s="7">
-        <v>1895820</v>
+        <v>1917845</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>4160</v>
       </c>
       <c r="N8" s="7">
-        <v>3829741</v>
+        <v>3995998</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>78874</v>
+        <v>75132</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>149</v>
       </c>
       <c r="I10" s="7">
-        <v>108653</v>
+        <v>99804</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>224</v>
       </c>
       <c r="N10" s="7">
-        <v>187528</v>
+        <v>174936</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>606</v>
       </c>
       <c r="D11" s="7">
-        <v>594165</v>
+        <v>571491</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>855</v>
       </c>
       <c r="I11" s="7">
-        <v>605233</v>
+        <v>560659</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>1461</v>
       </c>
       <c r="N11" s="7">
-        <v>1199398</v>
+        <v>1132150</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>494</v>
       </c>
       <c r="D13" s="7">
-        <v>446998</v>
+        <v>415554</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>1173</v>
       </c>
       <c r="I13" s="7">
-        <v>775789</v>
+        <v>695352</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>1667</v>
       </c>
       <c r="N13" s="7">
-        <v>1222787</v>
+        <v>1110906</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>2870</v>
       </c>
       <c r="D14" s="7">
-        <v>2929697</v>
+        <v>3036335</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>4179</v>
       </c>
       <c r="I14" s="7">
-        <v>3023571</v>
+        <v>2958442</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>7049</v>
       </c>
       <c r="N14" s="7">
-        <v>5953268</v>
+        <v>5994777</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
